--- a/biology/Botanique/Trentepohliaceae/Trentepohliaceae.xlsx
+++ b/biology/Botanique/Trentepohliaceae/Trentepohliaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Trentepohliaceae sont une famille d'algues vertes, la seule de l'ordre des Trentepohliales.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Trentepohlia, nom que donna Martius en 1817 en hommage au botaniste allemand Johann Friedrich Trentepohl (de)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Trentepohlia, nom que donna Martius en 1817 en hommage au botaniste allemand Johann Friedrich Trentepohl (de).
 </t>
         </is>
       </c>
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,6 +586,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -595,15 +613,17 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (3 janvier 2023)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (3 janvier 2023) :
 Bulbotrichia Kützing, 1849
 Byssus Linnaeus, 1753
 Cephaleuros Kunze ex E.M.Fries, 1832
 Chromopeltis Reinsch, 1875
 Chrooderma F.E.Fritsch, 1942
-Chroolepus C.Agardh, 1824[3]
+Chroolepus C.Agardh, 1824
 Friedaea Schmidle, 1905
 Hansgirgia De Toni, 1888
 Lochmium Printz, 1916
@@ -643,10 +663,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Trentepohliaceae Hansgirg, 1886[2].
-Trentepohliaceae a pour synonyme[4] : Trentepholiaceae 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Trentepohliaceae Hansgirg, 1886.
+Trentepohliaceae a pour synonyme : Trentepholiaceae 
 </t>
         </is>
       </c>
@@ -675,7 +697,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(de) A. Hansgirg, 1886, « Prodromus der Algenflora von Böhmen. Erster Theil enthaltend die Rhodophyceen, Phaeophyceen und einen Theil der Chlorophyceen ». Archiv für die naturwissenschaftliche Landesdurchforschung von Böhmen, vol. 5, n. 6, p. 1-96 (lire en ligne).</t>
         </is>
